--- a/va_facility_data_2025-02-20/Bad Axe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bad%20Axe%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bad Axe VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bad%20Axe%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R829fc6d53cb44850b6b073da4425e88c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2ddc16ee5444457399fbaa5add69c4cf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8f1372a488c949c59e2e19ac7a6a6705"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfdc10e4b37114240a3b0152475afeff7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbcc10ee15ab44294b12ed6cadfdd8a29"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3a631b898db845b79d71f0ca8b48b22a"/>
   </x:sheets>
 </x:workbook>
 </file>
